--- a/level-1/hackerearth/phase-1-4/hackerearth-phase-1-4.xlsx
+++ b/level-1/hackerearth/phase-1-4/hackerearth-phase-1-4.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C518D6AF-D3D5-4D1E-A957-CE873E49C1D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C12933-7DB8-4D73-B612-E7974604D83A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 1 - basic programming" sheetId="14" r:id="rId1"/>
+    <sheet name="hackerearth 1.4" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -627,12 +640,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -645,10 +658,7 @@
     <xf numFmtId="1" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1179,81 +1189,81 @@
   <cols>
     <col min="1" max="1" width="33.5546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="7" width="15.109375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="10" customWidth="1"/>
+    <col min="3" max="7" width="15.109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="9" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="13" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="6" t="e">
-        <f>AVERAGE(C4:C147)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C147)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="6" t="e">
-        <f>AVERAGE(D4:D147)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="6" t="e">
-        <f>AVERAGE(E4:E147)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="6" t="e">
-        <f>AVERAGE(F4:F147)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="6" t="e">
-        <f>AVERAGE(G4:G147)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="6">
-        <f>AVERAGE(H4:H147)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -1272,17 +1282,17 @@
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="7">
         <f>SUM(C4:G4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1293,16 +1303,16 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="7">
         <f>SUM(C5:G5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1323,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1344,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1361,11 +1371,11 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="7">
-        <f t="shared" ref="H8:H71" si="0">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1382,11 +1392,11 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1403,11 +1413,11 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1424,11 +1434,11 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1439,17 +1449,17 @@
       <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
       <c r="H12" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1466,11 +1476,11 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1487,11 +1497,11 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1508,11 +1518,11 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1529,11 +1539,11 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1550,11 +1560,11 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1565,17 +1575,17 @@
       <c r="B18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1592,11 +1602,11 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1613,11 +1623,11 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1628,17 +1638,17 @@
       <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1655,11 +1665,11 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="11" t="s">
+      <c r="J22" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1676,11 +1686,11 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1697,11 +1707,11 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1718,11 +1728,11 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1739,11 +1749,11 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="11" t="s">
+      <c r="J26" s="10" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1760,11 +1770,11 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="11" t="s">
+      <c r="J27" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1781,11 +1791,11 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="11" t="s">
+      <c r="J28" s="10" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1802,11 +1812,11 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1817,17 +1827,17 @@
       <c r="B30" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
       <c r="H30" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1838,17 +1848,17 @@
       <c r="B31" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
       <c r="H31" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1865,11 +1875,11 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1886,11 +1896,11 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="11" t="s">
+      <c r="J33" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1901,17 +1911,17 @@
       <c r="B34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
       <c r="H34" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="11" t="s">
+      <c r="J34" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1922,17 +1932,17 @@
       <c r="B35" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="11" t="s">
+      <c r="J35" s="10" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1949,11 +1959,11 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1964,17 +1974,17 @@
       <c r="B37" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1991,11 +2001,11 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2006,17 +2016,17 @@
       <c r="B39" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
       <c r="H39" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2033,11 +2043,11 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2054,11 +2064,11 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="11" t="s">
+      <c r="J41" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2075,11 +2085,11 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="11" t="s">
+      <c r="J42" s="10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2096,11 +2106,11 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="11" t="s">
+      <c r="J43" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2111,17 +2121,17 @@
       <c r="B44" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="11" t="s">
+      <c r="J44" s="10" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2132,17 +2142,17 @@
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
       <c r="H45" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="11" t="s">
+      <c r="J45" s="10" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2153,17 +2163,17 @@
       <c r="B46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
       <c r="H46" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="11" t="s">
+      <c r="J46" s="10" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2174,17 +2184,17 @@
       <c r="B47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="2"/>
-      <c r="J47" s="11" t="s">
+      <c r="J47" s="10" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2201,11 +2211,11 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="2"/>
-      <c r="J48" s="11" t="s">
+      <c r="J48" s="10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2216,17 +2226,17 @@
       <c r="B49" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
       <c r="H49" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="11" t="s">
+      <c r="J49" s="10" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2243,11 +2253,11 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="11" t="s">
+      <c r="J50" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2264,11 +2274,11 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="11" t="s">
+      <c r="J51" s="10" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2285,11 +2295,11 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="11" t="s">
+      <c r="J52" s="10" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2306,11 +2316,11 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="11" t="s">
+      <c r="J53" s="10" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2321,17 +2331,17 @@
       <c r="B54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="2"/>
-      <c r="J54" s="11" t="s">
+      <c r="J54" s="10" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2342,17 +2352,17 @@
       <c r="B55" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
       <c r="H55" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="11" t="s">
+      <c r="J55" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2363,17 +2373,17 @@
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="11" t="s">
+      <c r="J56" s="10" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2384,17 +2394,17 @@
       <c r="B57" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
       <c r="H57" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="11" t="s">
+      <c r="J57" s="10" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2405,17 +2415,17 @@
       <c r="B58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
       <c r="H58" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="2"/>
-      <c r="J58" s="11" t="s">
+      <c r="J58" s="10" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2432,11 +2442,11 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I59" s="2"/>
-      <c r="J59" s="11" t="s">
+      <c r="J59" s="10" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2447,17 +2457,17 @@
       <c r="B60" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
       <c r="H60" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I60" s="2"/>
-      <c r="J60" s="11" t="s">
+      <c r="J60" s="10" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2474,11 +2484,11 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I61" s="2"/>
-      <c r="J61" s="11" t="s">
+      <c r="J61" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2495,11 +2505,11 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I62" s="2"/>
-      <c r="J62" s="11" t="s">
+      <c r="J62" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2516,11 +2526,11 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I63" s="2"/>
-      <c r="J63" s="11" t="s">
+      <c r="J63" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2537,11 +2547,11 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I64" s="2"/>
-      <c r="J64" s="11" t="s">
+      <c r="J64" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2552,17 +2562,17 @@
       <c r="B65" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
       <c r="H65" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I65" s="2"/>
-      <c r="J65" s="11" t="s">
+      <c r="J65" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2573,17 +2583,17 @@
       <c r="B66" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
       <c r="H66" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I66" s="2"/>
-      <c r="J66" s="11" t="s">
+      <c r="J66" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2600,11 +2610,11 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I67" s="2"/>
-      <c r="J67" s="11" t="s">
+      <c r="J67" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2615,17 +2625,17 @@
       <c r="B68" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I68" s="2"/>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2636,17 +2646,17 @@
       <c r="B69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
       <c r="H69" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I69" s="2"/>
-      <c r="J69" s="11" t="s">
+      <c r="J69" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2663,11 +2673,11 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I70" s="2"/>
-      <c r="J70" s="11" t="s">
+      <c r="J70" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2678,17 +2688,17 @@
       <c r="B71" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I71" s="2"/>
-      <c r="J71" s="11" t="s">
+      <c r="J71" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2699,17 +2709,17 @@
       <c r="B72" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
       <c r="H72" s="7">
-        <f t="shared" ref="H72:H108" si="1">SUM(C72:G72)</f>
+        <f t="shared" ref="H72:H108" si="2">SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="2"/>
-      <c r="J72" s="11" t="s">
+      <c r="J72" s="10" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2720,17 +2730,17 @@
       <c r="B73" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
       <c r="H73" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I73" s="2"/>
-      <c r="J73" s="11" t="s">
+      <c r="J73" s="10" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2741,16 +2751,16 @@
       <c r="B74" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
       <c r="H74" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J74" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J74" s="11" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2761,16 +2771,16 @@
       <c r="B75" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
       <c r="H75" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2787,10 +2797,10 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="11" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2807,10 +2817,10 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2827,10 +2837,10 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2847,10 +2857,10 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="11" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2861,16 +2871,16 @@
       <c r="B80" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
       <c r="H80" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2881,16 +2891,16 @@
       <c r="B81" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
       <c r="H81" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2907,10 +2917,10 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="11" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2921,16 +2931,16 @@
       <c r="B83" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
       <c r="H83" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="11" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2941,16 +2951,16 @@
       <c r="B84" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
       <c r="H84" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="11" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2961,16 +2971,16 @@
       <c r="B85" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="11" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2981,16 +2991,16 @@
       <c r="B86" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
       <c r="H86" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="11" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3001,16 +3011,16 @@
       <c r="B87" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
       <c r="H87" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="11" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3021,16 +3031,16 @@
       <c r="B88" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
       <c r="H88" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="11" t="s">
         <v>95</v>
       </c>
     </row>
@@ -3041,16 +3051,16 @@
       <c r="B89" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
       <c r="H89" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3061,16 +3071,16 @@
       <c r="B90" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
       <c r="H90" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="11" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3081,16 +3091,16 @@
       <c r="B91" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
       <c r="H91" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="11" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3101,16 +3111,16 @@
       <c r="B92" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
       <c r="H92" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3121,16 +3131,16 @@
       <c r="B93" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
       <c r="H93" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3141,16 +3151,16 @@
       <c r="B94" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
       <c r="H94" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -3161,16 +3171,16 @@
       <c r="B95" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
       <c r="H95" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3181,16 +3191,16 @@
       <c r="B96" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
       <c r="H96" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3201,16 +3211,16 @@
       <c r="B97" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
       <c r="H97" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3221,16 +3231,16 @@
       <c r="B98" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
       <c r="H98" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3241,16 +3251,16 @@
       <c r="B99" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
       <c r="H99" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3261,16 +3271,16 @@
       <c r="B100" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
       <c r="H100" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3281,16 +3291,16 @@
       <c r="B101" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3307,10 +3317,10 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c r="H102" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3321,16 +3331,16 @@
       <c r="B103" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
       <c r="H103" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3341,16 +3351,16 @@
       <c r="B104" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
       <c r="H104" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3361,16 +3371,16 @@
       <c r="B105" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
       <c r="H105" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="11" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3381,16 +3391,16 @@
       <c r="B106" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
       <c r="H106" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3401,16 +3411,16 @@
       <c r="B107" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
       <c r="H107" s="7">
-        <f t="shared" ref="H107" si="2">SUM(C107:G107)</f>
-        <v>0</v>
-      </c>
-      <c r="J107" s="12" t="s">
+        <f t="shared" ref="H107" si="3">SUM(C107:G107)</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3427,10 +3437,10 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c r="H108" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="12" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3441,16 +3451,16 @@
       <c r="B109" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
       <c r="H109" s="7">
-        <f t="shared" ref="H109" si="3">SUM(C109:G109)</f>
-        <v>0</v>
-      </c>
-      <c r="J109" s="12" t="s">
+        <f t="shared" ref="H109" si="4">SUM(C109:G109)</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3461,16 +3471,16 @@
       <c r="B110" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="7">
-        <f>SUM(C110:G110)</f>
-        <v>0</v>
-      </c>
-      <c r="J110" s="12" t="s">
+        <f t="shared" ref="H110:H138" si="5">SUM(C110:G110)</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="11" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3487,10 +3497,10 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c r="H111" s="7">
-        <f>SUM(C111:G111)</f>
-        <v>0</v>
-      </c>
-      <c r="J111" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="11" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3507,10 +3517,10 @@
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c r="H112" s="7">
-        <f>SUM(C112:G112)</f>
-        <v>0</v>
-      </c>
-      <c r="J112" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="11" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3521,16 +3531,16 @@
       <c r="B113" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
       <c r="H113" s="7">
-        <f>SUM(C113:G113)</f>
-        <v>0</v>
-      </c>
-      <c r="J113" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3547,10 +3557,10 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c r="H114" s="7">
-        <f>SUM(C114:G114)</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J114" s="11" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3561,16 +3571,16 @@
       <c r="B115" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
       <c r="H115" s="7">
-        <f>SUM(C115:G115)</f>
-        <v>0</v>
-      </c>
-      <c r="J115" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J115" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3581,16 +3591,16 @@
       <c r="B116" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
       <c r="H116" s="7">
-        <f>SUM(C116:G116)</f>
-        <v>0</v>
-      </c>
-      <c r="J116" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="11" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3601,16 +3611,16 @@
       <c r="B117" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
       <c r="H117" s="7">
-        <f>SUM(C117:G117)</f>
-        <v>0</v>
-      </c>
-      <c r="J117" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J117" s="11" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3621,16 +3631,16 @@
       <c r="B118" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
       <c r="H118" s="7">
-        <f>SUM(C118:G118)</f>
-        <v>0</v>
-      </c>
-      <c r="J118" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3647,10 +3657,10 @@
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c r="H119" s="7">
-        <f>SUM(C119:G119)</f>
-        <v>0</v>
-      </c>
-      <c r="J119" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J119" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3667,10 +3677,10 @@
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c r="H120" s="7">
-        <f>SUM(C120:G120)</f>
-        <v>0</v>
-      </c>
-      <c r="J120" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3681,16 +3691,16 @@
       <c r="B121" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
       <c r="H121" s="7">
-        <f>SUM(C121:G121)</f>
-        <v>0</v>
-      </c>
-      <c r="J121" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J121" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3701,16 +3711,16 @@
       <c r="B122" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8"/>
+      <c r="F122" s="8"/>
+      <c r="G122" s="8"/>
       <c r="H122" s="7">
-        <f>SUM(C122:G122)</f>
-        <v>0</v>
-      </c>
-      <c r="J122" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J122" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3721,16 +3731,16 @@
       <c r="B123" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8"/>
+      <c r="F123" s="8"/>
+      <c r="G123" s="8"/>
       <c r="H123" s="7">
-        <f>SUM(C123:G123)</f>
-        <v>0</v>
-      </c>
-      <c r="J123" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J123" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3741,16 +3751,16 @@
       <c r="B124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="8"/>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="8"/>
       <c r="H124" s="7">
-        <f>SUM(C124:G124)</f>
-        <v>0</v>
-      </c>
-      <c r="J124" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J124" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3767,10 +3777,10 @@
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c r="H125" s="7">
-        <f>SUM(C125:G125)</f>
-        <v>0</v>
-      </c>
-      <c r="J125" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J125" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3781,16 +3791,16 @@
       <c r="B126" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="8"/>
       <c r="H126" s="7">
-        <f>SUM(C126:G126)</f>
-        <v>0</v>
-      </c>
-      <c r="J126" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J126" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3801,16 +3811,16 @@
       <c r="B127" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
       <c r="H127" s="7">
-        <f>SUM(C127:G127)</f>
-        <v>0</v>
-      </c>
-      <c r="J127" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J127" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3821,16 +3831,16 @@
       <c r="B128" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="8"/>
       <c r="H128" s="7">
-        <f>SUM(C128:G128)</f>
-        <v>0</v>
-      </c>
-      <c r="J128" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J128" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3841,16 +3851,16 @@
       <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="8"/>
       <c r="H129" s="7">
-        <f>SUM(C129:G129)</f>
-        <v>0</v>
-      </c>
-      <c r="J129" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J129" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3861,16 +3871,16 @@
       <c r="B130" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
       <c r="H130" s="7">
-        <f>SUM(C130:G130)</f>
-        <v>0</v>
-      </c>
-      <c r="J130" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J130" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3881,16 +3891,16 @@
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
       <c r="H131" s="7">
-        <f>SUM(C131:G131)</f>
-        <v>0</v>
-      </c>
-      <c r="J131" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J131" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -3901,16 +3911,16 @@
       <c r="B132" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="E132" s="8"/>
+      <c r="F132" s="8"/>
+      <c r="G132" s="8"/>
       <c r="H132" s="7">
-        <f>SUM(C132:G132)</f>
-        <v>0</v>
-      </c>
-      <c r="J132" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J132" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3921,16 +3931,16 @@
       <c r="B133" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8"/>
+      <c r="G133" s="8"/>
       <c r="H133" s="7">
-        <f>SUM(C133:G133)</f>
-        <v>0</v>
-      </c>
-      <c r="J133" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J133" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -3941,16 +3951,16 @@
       <c r="B134" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="8"/>
+      <c r="G134" s="8"/>
       <c r="H134" s="7">
-        <f>SUM(C134:G134)</f>
-        <v>0</v>
-      </c>
-      <c r="J134" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J134" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3967,10 +3977,10 @@
       <c r="F135" s="8"/>
       <c r="G135" s="8"/>
       <c r="H135" s="7">
-        <f>SUM(C135:G135)</f>
-        <v>0</v>
-      </c>
-      <c r="J135" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J135" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3981,16 +3991,16 @@
       <c r="B136" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="E136" s="8"/>
+      <c r="F136" s="8"/>
+      <c r="G136" s="8"/>
       <c r="H136" s="7">
-        <f>SUM(C136:G136)</f>
-        <v>0</v>
-      </c>
-      <c r="J136" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J136" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4001,16 +4011,16 @@
       <c r="B137" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8"/>
+      <c r="G137" s="8"/>
       <c r="H137" s="7">
-        <f>SUM(C137:G137)</f>
-        <v>0</v>
-      </c>
-      <c r="J137" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J137" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4021,89 +4031,89 @@
       <c r="B138" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8"/>
+      <c r="F138" s="8"/>
+      <c r="G138" s="8"/>
       <c r="H138" s="7">
-        <f>SUM(C138:G138)</f>
-        <v>0</v>
-      </c>
-      <c r="J138" s="12" t="s">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J138" s="11" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8"/>
+      <c r="F139" s="8"/>
+      <c r="G139" s="8"/>
       <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
+      <c r="C140" s="8"/>
+      <c r="D140" s="8"/>
+      <c r="E140" s="8"/>
+      <c r="F140" s="8"/>
+      <c r="G140" s="8"/>
       <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
+      <c r="C141" s="8"/>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8"/>
+      <c r="F141" s="8"/>
+      <c r="G141" s="8"/>
       <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
-      <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="8"/>
+      <c r="F142" s="8"/>
+      <c r="G142" s="8"/>
       <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
       <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="8"/>
+      <c r="F144" s="8"/>
+      <c r="G144" s="8"/>
       <c r="H144" s="7"/>
     </row>
     <row r="145" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
       <c r="H145" s="7"/>
     </row>
     <row r="146" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
       <c r="H147" s="7"/>
     </row>
   </sheetData>
@@ -4119,101 +4129,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 J20:J23 A1 I24:J26">
-    <cfRule type="cellIs" dxfId="18" priority="33" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="17" priority="32" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="16" priority="31" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J65 J67:J70">
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J66">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J63:J71">
-    <cfRule type="cellIs" dxfId="12" priority="26" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="11" priority="17" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J72">
-    <cfRule type="cellIs" dxfId="10" priority="16" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J73">
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20:I23">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I65 I67:I70">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I63:I71">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
